--- a/docx文件的复制/Orin-Java/Java实验课名单.xlsx
+++ b/docx文件的复制/Orin-Java/Java实验课名单.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonhSoftware\Orin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubDesktop\Format-your-docx-file-name-with-one-click\docx文件的复制\Orin-Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55611943-19B6-4FB5-850A-1DC14A584E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5ED4D1-76BA-4242-BA83-F637F1AA4B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10510" yWindow="790" windowWidth="19200" windowHeight="9970" xr2:uid="{BC00B274-E751-4608-842E-E64A8104D356}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{BC00B274-E751-4608-842E-E64A8104D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$39</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +84,137 @@
   </si>
   <si>
     <t>张浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗慧阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓隆贤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵艺皓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹淑瑜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邬康睿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭吉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫哲</t>
+  </si>
+  <si>
+    <t>童忠钰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘潇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程子康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈小丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高嘉宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐宇轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景怡菲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱继鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴极</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李卓婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余佳曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙志豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马文博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘汀华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党琳轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘家瑞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈星池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张嘉楷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆宇聪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘炘俣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗丽姿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪喆元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段洲涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王宇泽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EC8896-B9F0-41E5-B073-603AD4A4CD60}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -467,85 +601,353 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>2023300156</v>
+        <v>20233001483</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>20233001567</v>
+        <v>20233001484</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>20233001572</v>
+        <v>20233001485</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B5">
-        <v>20233001574</v>
+        <v>20233001492</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B6">
-        <v>20233001578</v>
+        <v>20233001513</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>20233001578</v>
+        <v>20233001522</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B8">
-        <v>20233001581</v>
+        <v>20233001523</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B9">
-        <v>20233001584</v>
+        <v>20233001537</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>20233002039</v>
+        <v>20233001541</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>20233001543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>20233001555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>20233001558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>20233001561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>20233001562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>20233001563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>20233001564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>20233001565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>20233001567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>20233001569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>20233001570</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>20233001572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>20233001573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>20233001574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>20233001575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>20233001576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>20233001577</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>20233001578</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>20233001579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>20233001580</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>20233001581</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>20233001582</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>20233001583</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>20233001584</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <v>20233001585</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>20233001586</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <v>20233001587</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>20233001588</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>20233001589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <v>20233001629</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>20233002039</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B42">
         <v>20233002836</v>
       </c>
     </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43">
+        <v>20233006568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44">
+        <v>20233007286</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:A39" xr:uid="{E5EC8896-B9F0-41E5-B073-603AD4A4CD60}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B44">
+    <sortCondition ref="B2:B44"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
